--- a/frontui/app_data/valar_report_tmpl_20170701.xlsx
+++ b/frontui/app_data/valar_report_tmpl_20170701.xlsx
@@ -125,6 +125,7 @@
     <definedName name="azsRT_02_1">Report!$EK$5:$EK$78</definedName>
     <definedName name="azsRT_02_2">Report!$EL$5:$EL$78</definedName>
     <definedName name="asz38_2">Report!$DI$5:$DI$78</definedName>
+    <definedName name="azs38_2">Report!$DI$5:$DI$78</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
